--- a/Apendices/Figuras/modelagem-24h/tabela de erros/ljung_trn.xlsx
+++ b/Apendices/Figuras/modelagem-24h/tabela de erros/ljung_trn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Apendices/Figuras/modelagem-24h/tabela de erros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_6A69D6BF8740DD77FD32CE70453088B35299F781" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B16AFA96-6BFC-4E8C-BD33-9DF769751F86}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_6A69D6BF8740DD77FD32CE70453088B35299F781" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B464F65-E39C-4DD3-9E9D-E16589AFE40A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,6 +142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +436,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
